--- a/APM files/139675497/139675497 IMPORT 5.2 EPC Users.xlsx
+++ b/APM files/139675497/139675497 IMPORT 5.2 EPC Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138531860/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/139675497/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4260E7DE-B4A0-3C4F-BAE3-5C32DF1434BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F465C1F-C551-8440-BB49-FBBA9229BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="369">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -391,6 +391,756 @@
   </si>
   <si>
     <t>SYS_Travelio</t>
+  </si>
+  <si>
+    <t>116350922</t>
+  </si>
+  <si>
+    <t>116350928</t>
+  </si>
+  <si>
+    <t>116350929</t>
+  </si>
+  <si>
+    <t>116350930</t>
+  </si>
+  <si>
+    <t>116350934</t>
+  </si>
+  <si>
+    <t>116350935</t>
+  </si>
+  <si>
+    <t>116350936</t>
+  </si>
+  <si>
+    <t>116350939</t>
+  </si>
+  <si>
+    <t>116350940</t>
+  </si>
+  <si>
+    <t>116350943</t>
+  </si>
+  <si>
+    <t>116350944</t>
+  </si>
+  <si>
+    <t>116350946</t>
+  </si>
+  <si>
+    <t>116350948</t>
+  </si>
+  <si>
+    <t>116350949</t>
+  </si>
+  <si>
+    <t>116350950</t>
+  </si>
+  <si>
+    <t>116350953</t>
+  </si>
+  <si>
+    <t>116350955</t>
+  </si>
+  <si>
+    <t>116350956</t>
+  </si>
+  <si>
+    <t>116350957</t>
+  </si>
+  <si>
+    <t>116350958</t>
+  </si>
+  <si>
+    <t>116350960</t>
+  </si>
+  <si>
+    <t>116350963</t>
+  </si>
+  <si>
+    <t>116350964</t>
+  </si>
+  <si>
+    <t>116350966</t>
+  </si>
+  <si>
+    <t>116350967</t>
+  </si>
+  <si>
+    <t>116350968</t>
+  </si>
+  <si>
+    <t>116350971</t>
+  </si>
+  <si>
+    <t>116350973</t>
+  </si>
+  <si>
+    <t>116350974</t>
+  </si>
+  <si>
+    <t>116350975</t>
+  </si>
+  <si>
+    <t>116350976</t>
+  </si>
+  <si>
+    <t>116350979</t>
+  </si>
+  <si>
+    <t>116350981</t>
+  </si>
+  <si>
+    <t>116350982</t>
+  </si>
+  <si>
+    <t>116350983</t>
+  </si>
+  <si>
+    <t>116350984</t>
+  </si>
+  <si>
+    <t>116350986</t>
+  </si>
+  <si>
+    <t>116350988</t>
+  </si>
+  <si>
+    <t>116350989</t>
+  </si>
+  <si>
+    <t>116350991</t>
+  </si>
+  <si>
+    <t>116350992</t>
+  </si>
+  <si>
+    <t>116350994</t>
+  </si>
+  <si>
+    <t>116350996</t>
+  </si>
+  <si>
+    <t>116350997</t>
+  </si>
+  <si>
+    <t>116350999</t>
+  </si>
+  <si>
+    <t>116351001</t>
+  </si>
+  <si>
+    <t>116351003</t>
+  </si>
+  <si>
+    <t>116351005</t>
+  </si>
+  <si>
+    <t>116351006</t>
+  </si>
+  <si>
+    <t>116351008</t>
+  </si>
+  <si>
+    <t>116351011</t>
+  </si>
+  <si>
+    <t>116351013</t>
+  </si>
+  <si>
+    <t>116351014</t>
+  </si>
+  <si>
+    <t>116351017</t>
+  </si>
+  <si>
+    <t>116351018</t>
+  </si>
+  <si>
+    <t>116351020</t>
+  </si>
+  <si>
+    <t>116351021</t>
+  </si>
+  <si>
+    <t>116351024</t>
+  </si>
+  <si>
+    <t>116351025</t>
+  </si>
+  <si>
+    <t>116351026</t>
+  </si>
+  <si>
+    <t>116351029</t>
+  </si>
+  <si>
+    <t>116351031</t>
+  </si>
+  <si>
+    <t>116351032</t>
+  </si>
+  <si>
+    <t>116351034</t>
+  </si>
+  <si>
+    <t>116351035</t>
+  </si>
+  <si>
+    <t>116351038</t>
+  </si>
+  <si>
+    <t>116351039</t>
+  </si>
+  <si>
+    <t>116351040</t>
+  </si>
+  <si>
+    <t>116351042</t>
+  </si>
+  <si>
+    <t>116351044</t>
+  </si>
+  <si>
+    <t>116351046</t>
+  </si>
+  <si>
+    <t>116351048</t>
+  </si>
+  <si>
+    <t>116351049</t>
+  </si>
+  <si>
+    <t>116351052</t>
+  </si>
+  <si>
+    <t>116351053</t>
+  </si>
+  <si>
+    <t>116351056</t>
+  </si>
+  <si>
+    <t>116351059</t>
+  </si>
+  <si>
+    <t>116351060</t>
+  </si>
+  <si>
+    <t>116351061</t>
+  </si>
+  <si>
+    <t>116351064</t>
+  </si>
+  <si>
+    <t>116351066</t>
+  </si>
+  <si>
+    <t>116351069</t>
+  </si>
+  <si>
+    <t>116351070</t>
+  </si>
+  <si>
+    <t>116351072</t>
+  </si>
+  <si>
+    <t>116351075</t>
+  </si>
+  <si>
+    <t>116351076</t>
+  </si>
+  <si>
+    <t>116351077</t>
+  </si>
+  <si>
+    <t>116351079</t>
+  </si>
+  <si>
+    <t>116351081</t>
+  </si>
+  <si>
+    <t>116351082</t>
+  </si>
+  <si>
+    <t>116351083</t>
+  </si>
+  <si>
+    <t>116351084</t>
+  </si>
+  <si>
+    <t>116351085</t>
+  </si>
+  <si>
+    <t>116351087</t>
+  </si>
+  <si>
+    <t>116351088</t>
+  </si>
+  <si>
+    <t>116351090</t>
+  </si>
+  <si>
+    <t>116351092</t>
+  </si>
+  <si>
+    <t>116351093</t>
+  </si>
+  <si>
+    <t>116351094</t>
+  </si>
+  <si>
+    <t>116351095</t>
+  </si>
+  <si>
+    <t>116351097</t>
+  </si>
+  <si>
+    <t>116351100</t>
+  </si>
+  <si>
+    <t>116351101</t>
+  </si>
+  <si>
+    <t>116351102</t>
+  </si>
+  <si>
+    <t>116351104</t>
+  </si>
+  <si>
+    <t>116351106</t>
+  </si>
+  <si>
+    <t>116351107</t>
+  </si>
+  <si>
+    <t>116351109</t>
+  </si>
+  <si>
+    <t>116351111</t>
+  </si>
+  <si>
+    <t>116351113</t>
+  </si>
+  <si>
+    <t>116351115</t>
+  </si>
+  <si>
+    <t>116351116</t>
+  </si>
+  <si>
+    <t>116351120</t>
+  </si>
+  <si>
+    <t>116351121</t>
+  </si>
+  <si>
+    <t>116351123</t>
+  </si>
+  <si>
+    <t>116351125</t>
+  </si>
+  <si>
+    <t>116351127</t>
+  </si>
+  <si>
+    <t>116351128</t>
+  </si>
+  <si>
+    <t>116351130</t>
+  </si>
+  <si>
+    <t>116351132</t>
+  </si>
+  <si>
+    <t>116351134</t>
+  </si>
+  <si>
+    <t>116351136</t>
+  </si>
+  <si>
+    <t>116351138</t>
+  </si>
+  <si>
+    <t>116351139</t>
+  </si>
+  <si>
+    <t>116351141</t>
+  </si>
+  <si>
+    <t>116351142</t>
+  </si>
+  <si>
+    <t>116351144</t>
+  </si>
+  <si>
+    <t>116351146</t>
+  </si>
+  <si>
+    <t>116351147</t>
+  </si>
+  <si>
+    <t>116351150</t>
+  </si>
+  <si>
+    <t>116351151</t>
+  </si>
+  <si>
+    <t>116351153</t>
+  </si>
+  <si>
+    <t>116351155</t>
+  </si>
+  <si>
+    <t>116351157</t>
+  </si>
+  <si>
+    <t>116351158</t>
+  </si>
+  <si>
+    <t>116351159</t>
+  </si>
+  <si>
+    <t>116351161</t>
+  </si>
+  <si>
+    <t>116351162</t>
+  </si>
+  <si>
+    <t>116351163</t>
+  </si>
+  <si>
+    <t>116351165</t>
+  </si>
+  <si>
+    <t>116351167</t>
+  </si>
+  <si>
+    <t>116351168</t>
+  </si>
+  <si>
+    <t>116351170</t>
+  </si>
+  <si>
+    <t>116351171</t>
+  </si>
+  <si>
+    <t>116351172</t>
+  </si>
+  <si>
+    <t>116351175</t>
+  </si>
+  <si>
+    <t>116351176</t>
+  </si>
+  <si>
+    <t>116351178</t>
+  </si>
+  <si>
+    <t>116351179</t>
+  </si>
+  <si>
+    <t>116351181</t>
+  </si>
+  <si>
+    <t>116351182</t>
+  </si>
+  <si>
+    <t>116351183</t>
+  </si>
+  <si>
+    <t>116351184</t>
+  </si>
+  <si>
+    <t>116351186</t>
+  </si>
+  <si>
+    <t>116351187</t>
+  </si>
+  <si>
+    <t>116351188</t>
+  </si>
+  <si>
+    <t>116351191</t>
+  </si>
+  <si>
+    <t>116351192</t>
+  </si>
+  <si>
+    <t>116351193</t>
+  </si>
+  <si>
+    <t>116351194</t>
+  </si>
+  <si>
+    <t>116351195</t>
+  </si>
+  <si>
+    <t>116351198</t>
+  </si>
+  <si>
+    <t>116351199</t>
+  </si>
+  <si>
+    <t>116351200</t>
+  </si>
+  <si>
+    <t>116351201</t>
+  </si>
+  <si>
+    <t>116351202</t>
+  </si>
+  <si>
+    <t>116351203</t>
+  </si>
+  <si>
+    <t>116351204</t>
+  </si>
+  <si>
+    <t>116351206</t>
+  </si>
+  <si>
+    <t>116351208</t>
+  </si>
+  <si>
+    <t>116351209</t>
+  </si>
+  <si>
+    <t>116351210</t>
+  </si>
+  <si>
+    <t>116351212</t>
+  </si>
+  <si>
+    <t>116351213</t>
+  </si>
+  <si>
+    <t>116351215</t>
+  </si>
+  <si>
+    <t>116351216</t>
+  </si>
+  <si>
+    <t>116351218</t>
+  </si>
+  <si>
+    <t>116351219</t>
+  </si>
+  <si>
+    <t>116351221</t>
+  </si>
+  <si>
+    <t>116351222</t>
+  </si>
+  <si>
+    <t>116351223</t>
+  </si>
+  <si>
+    <t>116351226</t>
+  </si>
+  <si>
+    <t>116351227</t>
+  </si>
+  <si>
+    <t>116351228</t>
+  </si>
+  <si>
+    <t>116351229</t>
+  </si>
+  <si>
+    <t>116351231</t>
+  </si>
+  <si>
+    <t>116351233</t>
+  </si>
+  <si>
+    <t>116351234</t>
+  </si>
+  <si>
+    <t>116351236</t>
+  </si>
+  <si>
+    <t>116351237</t>
+  </si>
+  <si>
+    <t>116351238</t>
+  </si>
+  <si>
+    <t>116351240</t>
+  </si>
+  <si>
+    <t>116351242</t>
+  </si>
+  <si>
+    <t>116351243</t>
+  </si>
+  <si>
+    <t>116351245</t>
+  </si>
+  <si>
+    <t>116351247</t>
+  </si>
+  <si>
+    <t>116351249</t>
+  </si>
+  <si>
+    <t>116351250</t>
+  </si>
+  <si>
+    <t>116351253</t>
+  </si>
+  <si>
+    <t>116351254</t>
+  </si>
+  <si>
+    <t>116351255</t>
+  </si>
+  <si>
+    <t>116351257</t>
+  </si>
+  <si>
+    <t>116351259</t>
+  </si>
+  <si>
+    <t>116351261</t>
+  </si>
+  <si>
+    <t>116351262</t>
+  </si>
+  <si>
+    <t>116351264</t>
+  </si>
+  <si>
+    <t>116351265</t>
+  </si>
+  <si>
+    <t>116351267</t>
+  </si>
+  <si>
+    <t>116351268</t>
+  </si>
+  <si>
+    <t>116351270</t>
+  </si>
+  <si>
+    <t>116351272</t>
+  </si>
+  <si>
+    <t>116351273</t>
+  </si>
+  <si>
+    <t>116351274</t>
+  </si>
+  <si>
+    <t>116351276</t>
+  </si>
+  <si>
+    <t>116351277</t>
+  </si>
+  <si>
+    <t>116351278</t>
+  </si>
+  <si>
+    <t>116351280</t>
+  </si>
+  <si>
+    <t>116351281</t>
+  </si>
+  <si>
+    <t>116351283</t>
+  </si>
+  <si>
+    <t>116351284</t>
+  </si>
+  <si>
+    <t>116351286</t>
+  </si>
+  <si>
+    <t>116351289</t>
+  </si>
+  <si>
+    <t>116351290</t>
+  </si>
+  <si>
+    <t>116351292</t>
+  </si>
+  <si>
+    <t>116351294</t>
+  </si>
+  <si>
+    <t>116351295</t>
+  </si>
+  <si>
+    <t>116351297</t>
+  </si>
+  <si>
+    <t>116351299</t>
+  </si>
+  <si>
+    <t>116351300</t>
+  </si>
+  <si>
+    <t>116351301</t>
+  </si>
+  <si>
+    <t>116351303</t>
+  </si>
+  <si>
+    <t>116351304</t>
+  </si>
+  <si>
+    <t>116351305</t>
+  </si>
+  <si>
+    <t>116351307</t>
+  </si>
+  <si>
+    <t>116351308</t>
+  </si>
+  <si>
+    <t>116351311</t>
+  </si>
+  <si>
+    <t>116351312</t>
+  </si>
+  <si>
+    <t>116351313</t>
+  </si>
+  <si>
+    <t>116351314</t>
+  </si>
+  <si>
+    <t>116351316</t>
+  </si>
+  <si>
+    <t>116351318</t>
+  </si>
+  <si>
+    <t>116351319</t>
+  </si>
+  <si>
+    <t>116351320</t>
+  </si>
+  <si>
+    <t>116351321</t>
+  </si>
+  <si>
+    <t>116351324</t>
+  </si>
+  <si>
+    <t>116351326</t>
+  </si>
+  <si>
+    <t>116351327</t>
+  </si>
+  <si>
+    <t>116351328</t>
+  </si>
+  <si>
+    <t>116351329</t>
+  </si>
+  <si>
+    <t>116351332</t>
   </si>
 </sst>
 </file>
@@ -762,11 +1512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,7 +1550,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>138531860</v>
+        <v>139675497</v>
       </c>
       <c r="C2" t="s">
         <v>118</v>
@@ -817,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>138531861</v>
+        <v>139675497</v>
       </c>
       <c r="C3" t="s">
         <v>118</v>
@@ -834,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>138531862</v>
+        <v>139675497</v>
       </c>
       <c r="C4" t="s">
         <v>118</v>
@@ -851,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>138531863</v>
+        <v>139675497</v>
       </c>
       <c r="C5" t="s">
         <v>118</v>
@@ -868,7 +1618,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>138531864</v>
+        <v>139675497</v>
       </c>
       <c r="C6" t="s">
         <v>118</v>
@@ -885,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>138531865</v>
+        <v>139675497</v>
       </c>
       <c r="C7" t="s">
         <v>118</v>
@@ -902,7 +1652,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>138531866</v>
+        <v>139675497</v>
       </c>
       <c r="C8" t="s">
         <v>118</v>
@@ -919,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>138531867</v>
+        <v>139675497</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -936,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>138531868</v>
+        <v>139675497</v>
       </c>
       <c r="C10" t="s">
         <v>118</v>
@@ -953,7 +1703,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>138531869</v>
+        <v>139675497</v>
       </c>
       <c r="C11" t="s">
         <v>118</v>
@@ -970,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>138531870</v>
+        <v>139675497</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -987,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>138531871</v>
+        <v>139675497</v>
       </c>
       <c r="C13" t="s">
         <v>118</v>
@@ -1004,7 +1754,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>138531872</v>
+        <v>139675497</v>
       </c>
       <c r="C14" t="s">
         <v>118</v>
@@ -1021,7 +1771,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>138531873</v>
+        <v>139675497</v>
       </c>
       <c r="C15" t="s">
         <v>118</v>
@@ -1038,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>138531874</v>
+        <v>139675497</v>
       </c>
       <c r="C16" t="s">
         <v>118</v>
@@ -1055,7 +1805,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>138531875</v>
+        <v>139675497</v>
       </c>
       <c r="C17" t="s">
         <v>118</v>
@@ -1072,7 +1822,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>138531876</v>
+        <v>139675497</v>
       </c>
       <c r="C18" t="s">
         <v>118</v>
@@ -1089,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>138531877</v>
+        <v>139675497</v>
       </c>
       <c r="C19" t="s">
         <v>118</v>
@@ -1106,7 +1856,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>138531878</v>
+        <v>139675497</v>
       </c>
       <c r="C20" t="s">
         <v>118</v>
@@ -1123,7 +1873,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>138531879</v>
+        <v>139675497</v>
       </c>
       <c r="C21" t="s">
         <v>118</v>
@@ -1140,7 +1890,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>138531880</v>
+        <v>139675497</v>
       </c>
       <c r="C22" t="s">
         <v>118</v>
@@ -1157,7 +1907,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>138531881</v>
+        <v>139675497</v>
       </c>
       <c r="C23" t="s">
         <v>118</v>
@@ -1174,7 +1924,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>138531882</v>
+        <v>139675497</v>
       </c>
       <c r="C24" t="s">
         <v>118</v>
@@ -1191,7 +1941,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>138531883</v>
+        <v>139675497</v>
       </c>
       <c r="C25" t="s">
         <v>118</v>
@@ -1208,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>138531884</v>
+        <v>139675497</v>
       </c>
       <c r="C26" t="s">
         <v>118</v>
@@ -1225,7 +1975,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>138531885</v>
+        <v>139675497</v>
       </c>
       <c r="C27" t="s">
         <v>118</v>
@@ -1242,7 +1992,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>138531886</v>
+        <v>139675497</v>
       </c>
       <c r="C28" t="s">
         <v>118</v>
@@ -1259,7 +2009,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>138531887</v>
+        <v>139675497</v>
       </c>
       <c r="C29" t="s">
         <v>118</v>
@@ -1276,7 +2026,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>138531888</v>
+        <v>139675497</v>
       </c>
       <c r="C30" t="s">
         <v>118</v>
@@ -1293,7 +2043,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>138531889</v>
+        <v>139675497</v>
       </c>
       <c r="C31" t="s">
         <v>118</v>
@@ -1310,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>138531890</v>
+        <v>139675497</v>
       </c>
       <c r="C32" t="s">
         <v>118</v>
@@ -1327,7 +2077,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>138531891</v>
+        <v>139675497</v>
       </c>
       <c r="C33" t="s">
         <v>118</v>
@@ -1344,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>138531892</v>
+        <v>139675497</v>
       </c>
       <c r="C34" t="s">
         <v>118</v>
@@ -1361,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>138531893</v>
+        <v>139675497</v>
       </c>
       <c r="C35" t="s">
         <v>118</v>
@@ -1378,7 +2128,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>138531894</v>
+        <v>139675497</v>
       </c>
       <c r="C36" t="s">
         <v>118</v>
@@ -1395,7 +2145,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>138531895</v>
+        <v>139675497</v>
       </c>
       <c r="C37" t="s">
         <v>118</v>
@@ -1412,7 +2162,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>138531896</v>
+        <v>139675497</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
@@ -1429,7 +2179,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>138531897</v>
+        <v>139675497</v>
       </c>
       <c r="C39" t="s">
         <v>118</v>
@@ -1446,7 +2196,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>138531898</v>
+        <v>139675497</v>
       </c>
       <c r="C40" t="s">
         <v>118</v>
@@ -1463,7 +2213,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>138531899</v>
+        <v>139675497</v>
       </c>
       <c r="C41" t="s">
         <v>118</v>
@@ -1480,7 +2230,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>138531900</v>
+        <v>139675497</v>
       </c>
       <c r="C42" t="s">
         <v>118</v>
@@ -1497,7 +2247,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>138531901</v>
+        <v>139675497</v>
       </c>
       <c r="C43" t="s">
         <v>118</v>
@@ -1514,7 +2264,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>138531902</v>
+        <v>139675497</v>
       </c>
       <c r="C44" t="s">
         <v>118</v>
@@ -1531,7 +2281,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>138531903</v>
+        <v>139675497</v>
       </c>
       <c r="C45" t="s">
         <v>118</v>
@@ -1548,7 +2298,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>138531904</v>
+        <v>139675497</v>
       </c>
       <c r="C46" t="s">
         <v>118</v>
@@ -1565,7 +2315,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>138531905</v>
+        <v>139675497</v>
       </c>
       <c r="C47" t="s">
         <v>118</v>
@@ -1582,7 +2332,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>138531906</v>
+        <v>139675497</v>
       </c>
       <c r="C48" t="s">
         <v>118</v>
@@ -1599,7 +2349,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>138531907</v>
+        <v>139675497</v>
       </c>
       <c r="C49" t="s">
         <v>118</v>
@@ -1616,7 +2366,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>138531908</v>
+        <v>139675497</v>
       </c>
       <c r="C50" t="s">
         <v>118</v>
@@ -1633,7 +2383,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>138531909</v>
+        <v>139675497</v>
       </c>
       <c r="C51" t="s">
         <v>118</v>
@@ -1650,7 +2400,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>138531910</v>
+        <v>139675497</v>
       </c>
       <c r="C52" t="s">
         <v>118</v>
@@ -1667,7 +2417,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>138531911</v>
+        <v>139675497</v>
       </c>
       <c r="C53" t="s">
         <v>118</v>
@@ -1684,7 +2434,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>138531912</v>
+        <v>139675497</v>
       </c>
       <c r="C54" t="s">
         <v>118</v>
@@ -1701,7 +2451,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>138531913</v>
+        <v>139675497</v>
       </c>
       <c r="C55" t="s">
         <v>118</v>
@@ -1718,7 +2468,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>138531914</v>
+        <v>139675497</v>
       </c>
       <c r="C56" t="s">
         <v>118</v>
@@ -1735,7 +2485,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>138531915</v>
+        <v>139675497</v>
       </c>
       <c r="C57" t="s">
         <v>118</v>
@@ -1752,7 +2502,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>138531916</v>
+        <v>139675497</v>
       </c>
       <c r="C58" t="s">
         <v>118</v>
@@ -1769,7 +2519,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>138531917</v>
+        <v>139675497</v>
       </c>
       <c r="C59" t="s">
         <v>118</v>
@@ -1786,7 +2536,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>138531918</v>
+        <v>139675497</v>
       </c>
       <c r="C60" t="s">
         <v>118</v>
@@ -1803,7 +2553,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>138531919</v>
+        <v>139675497</v>
       </c>
       <c r="C61" t="s">
         <v>118</v>
@@ -1820,7 +2570,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>138531920</v>
+        <v>139675497</v>
       </c>
       <c r="C62" t="s">
         <v>118</v>
@@ -1837,7 +2587,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>138531921</v>
+        <v>139675497</v>
       </c>
       <c r="C63" t="s">
         <v>118</v>
@@ -1854,7 +2604,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>138531922</v>
+        <v>139675497</v>
       </c>
       <c r="C64" t="s">
         <v>118</v>
@@ -1871,7 +2621,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>138531923</v>
+        <v>139675497</v>
       </c>
       <c r="C65" t="s">
         <v>118</v>
@@ -1888,7 +2638,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>138531924</v>
+        <v>139675497</v>
       </c>
       <c r="C66" t="s">
         <v>118</v>
@@ -1905,7 +2655,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>138531925</v>
+        <v>139675497</v>
       </c>
       <c r="C67" t="s">
         <v>118</v>
@@ -1922,7 +2672,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>138531926</v>
+        <v>139675497</v>
       </c>
       <c r="C68" t="s">
         <v>118</v>
@@ -1939,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>138531927</v>
+        <v>139675497</v>
       </c>
       <c r="C69" t="s">
         <v>118</v>
@@ -1956,7 +2706,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>138531928</v>
+        <v>139675497</v>
       </c>
       <c r="C70" t="s">
         <v>118</v>
@@ -1973,7 +2723,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>138531929</v>
+        <v>139675497</v>
       </c>
       <c r="C71" t="s">
         <v>118</v>
@@ -1990,7 +2740,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>138531930</v>
+        <v>139675497</v>
       </c>
       <c r="C72" t="s">
         <v>118</v>
@@ -2007,7 +2757,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>138531931</v>
+        <v>139675497</v>
       </c>
       <c r="C73" t="s">
         <v>118</v>
@@ -2024,7 +2774,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>138531932</v>
+        <v>139675497</v>
       </c>
       <c r="C74" t="s">
         <v>118</v>
@@ -2041,7 +2791,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>138531933</v>
+        <v>139675497</v>
       </c>
       <c r="C75" t="s">
         <v>118</v>
@@ -2058,7 +2808,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>138531934</v>
+        <v>139675497</v>
       </c>
       <c r="C76" t="s">
         <v>118</v>
@@ -2075,7 +2825,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>138531935</v>
+        <v>139675497</v>
       </c>
       <c r="C77" t="s">
         <v>118</v>
@@ -2092,7 +2842,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>138531936</v>
+        <v>139675497</v>
       </c>
       <c r="C78" t="s">
         <v>118</v>
@@ -2109,7 +2859,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>138531937</v>
+        <v>139675497</v>
       </c>
       <c r="C79" t="s">
         <v>118</v>
@@ -2126,7 +2876,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>138531938</v>
+        <v>139675497</v>
       </c>
       <c r="C80" t="s">
         <v>118</v>
@@ -2143,7 +2893,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>138531939</v>
+        <v>139675497</v>
       </c>
       <c r="C81" t="s">
         <v>118</v>
@@ -2160,7 +2910,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>138531940</v>
+        <v>139675497</v>
       </c>
       <c r="C82" t="s">
         <v>118</v>
@@ -2177,7 +2927,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>138531941</v>
+        <v>139675497</v>
       </c>
       <c r="C83" t="s">
         <v>118</v>
@@ -2194,7 +2944,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>138531942</v>
+        <v>139675497</v>
       </c>
       <c r="C84" t="s">
         <v>118</v>
@@ -2211,7 +2961,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>138531943</v>
+        <v>139675497</v>
       </c>
       <c r="C85" t="s">
         <v>118</v>
@@ -2228,7 +2978,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>138531944</v>
+        <v>139675497</v>
       </c>
       <c r="C86" t="s">
         <v>118</v>
@@ -2245,7 +2995,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>138531945</v>
+        <v>139675497</v>
       </c>
       <c r="C87" t="s">
         <v>118</v>
@@ -2262,7 +3012,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>138531946</v>
+        <v>139675497</v>
       </c>
       <c r="C88" t="s">
         <v>118</v>
@@ -2279,7 +3029,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>138531947</v>
+        <v>139675497</v>
       </c>
       <c r="C89" t="s">
         <v>118</v>
@@ -2296,7 +3046,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>138531948</v>
+        <v>139675497</v>
       </c>
       <c r="C90" t="s">
         <v>118</v>
@@ -2313,7 +3063,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>138531949</v>
+        <v>139675497</v>
       </c>
       <c r="C91" t="s">
         <v>118</v>
@@ -2330,7 +3080,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>138531950</v>
+        <v>139675497</v>
       </c>
       <c r="C92" t="s">
         <v>118</v>
@@ -2347,7 +3097,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>138531951</v>
+        <v>139675497</v>
       </c>
       <c r="C93" t="s">
         <v>118</v>
@@ -2364,7 +3114,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>138531952</v>
+        <v>139675497</v>
       </c>
       <c r="C94" t="s">
         <v>118</v>
@@ -2381,7 +3131,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>138531953</v>
+        <v>139675497</v>
       </c>
       <c r="C95" t="s">
         <v>118</v>
@@ -2398,7 +3148,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>138531954</v>
+        <v>139675497</v>
       </c>
       <c r="C96" t="s">
         <v>118</v>
@@ -2415,7 +3165,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>138531955</v>
+        <v>139675497</v>
       </c>
       <c r="C97" t="s">
         <v>118</v>
@@ -2432,7 +3182,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>138531956</v>
+        <v>139675497</v>
       </c>
       <c r="C98" t="s">
         <v>118</v>
@@ -2449,7 +3199,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>138531957</v>
+        <v>139675497</v>
       </c>
       <c r="C99" t="s">
         <v>118</v>
@@ -2466,7 +3216,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>138531958</v>
+        <v>139675497</v>
       </c>
       <c r="C100" t="s">
         <v>118</v>
@@ -2483,7 +3233,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>138531959</v>
+        <v>139675497</v>
       </c>
       <c r="C101" t="s">
         <v>118</v>
@@ -2500,7 +3250,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>138531960</v>
+        <v>139675497</v>
       </c>
       <c r="C102" t="s">
         <v>118</v>
@@ -2517,7 +3267,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>138531961</v>
+        <v>139675497</v>
       </c>
       <c r="C103" t="s">
         <v>118</v>
@@ -2534,7 +3284,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>138531962</v>
+        <v>139675497</v>
       </c>
       <c r="C104" t="s">
         <v>118</v>
@@ -2551,7 +3301,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>138531963</v>
+        <v>139675497</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
@@ -2568,7 +3318,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>138531964</v>
+        <v>139675497</v>
       </c>
       <c r="C106" t="s">
         <v>118</v>
@@ -2585,7 +3335,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>138531965</v>
+        <v>139675497</v>
       </c>
       <c r="C107" t="s">
         <v>118</v>
@@ -2602,7 +3352,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>138531966</v>
+        <v>139675497</v>
       </c>
       <c r="C108" t="s">
         <v>118</v>
@@ -2619,7 +3369,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>138531967</v>
+        <v>139675497</v>
       </c>
       <c r="C109" t="s">
         <v>118</v>
@@ -2636,7 +3386,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>138531968</v>
+        <v>139675497</v>
       </c>
       <c r="C110" t="s">
         <v>118</v>
@@ -2653,7 +3403,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>138531969</v>
+        <v>139675497</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -2670,7 +3420,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>138531970</v>
+        <v>139675497</v>
       </c>
       <c r="C112" t="s">
         <v>118</v>
@@ -2679,6 +3429,4256 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>139675497</v>
+      </c>
+      <c r="C113" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114">
+        <v>139675497</v>
+      </c>
+      <c r="C114" t="s">
+        <v>118</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115">
+        <v>139675497</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116">
+        <v>139675497</v>
+      </c>
+      <c r="C116" t="s">
+        <v>118</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117">
+        <v>139675497</v>
+      </c>
+      <c r="C117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>139675497</v>
+      </c>
+      <c r="C118" t="s">
+        <v>118</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119">
+        <v>139675497</v>
+      </c>
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120">
+        <v>139675497</v>
+      </c>
+      <c r="C120" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121">
+        <v>139675497</v>
+      </c>
+      <c r="C121" t="s">
+        <v>118</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122">
+        <v>139675497</v>
+      </c>
+      <c r="C122" t="s">
+        <v>118</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123">
+        <v>139675497</v>
+      </c>
+      <c r="C123" t="s">
+        <v>118</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124">
+        <v>139675497</v>
+      </c>
+      <c r="C124" t="s">
+        <v>118</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125">
+        <v>139675497</v>
+      </c>
+      <c r="C125" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126">
+        <v>139675497</v>
+      </c>
+      <c r="C126" t="s">
+        <v>118</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127">
+        <v>139675497</v>
+      </c>
+      <c r="C127" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128">
+        <v>139675497</v>
+      </c>
+      <c r="C128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129">
+        <v>139675497</v>
+      </c>
+      <c r="C129" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130">
+        <v>139675497</v>
+      </c>
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131">
+        <v>139675497</v>
+      </c>
+      <c r="C131" t="s">
+        <v>118</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132">
+        <v>139675497</v>
+      </c>
+      <c r="C132" t="s">
+        <v>118</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133">
+        <v>139675497</v>
+      </c>
+      <c r="C133" t="s">
+        <v>118</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134">
+        <v>139675497</v>
+      </c>
+      <c r="C134" t="s">
+        <v>118</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135">
+        <v>139675497</v>
+      </c>
+      <c r="C135" t="s">
+        <v>118</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136">
+        <v>139675497</v>
+      </c>
+      <c r="C136" t="s">
+        <v>118</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137">
+        <v>139675497</v>
+      </c>
+      <c r="C137" t="s">
+        <v>118</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>144</v>
+      </c>
+      <c r="B138">
+        <v>139675497</v>
+      </c>
+      <c r="C138" t="s">
+        <v>118</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>139675497</v>
+      </c>
+      <c r="C139" t="s">
+        <v>118</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>139675497</v>
+      </c>
+      <c r="C140" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141">
+        <v>139675497</v>
+      </c>
+      <c r="C141" t="s">
+        <v>118</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142">
+        <v>139675497</v>
+      </c>
+      <c r="C142" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143">
+        <v>139675497</v>
+      </c>
+      <c r="C143" t="s">
+        <v>118</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>139675497</v>
+      </c>
+      <c r="C144" t="s">
+        <v>118</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145">
+        <v>139675497</v>
+      </c>
+      <c r="C145" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>139675497</v>
+      </c>
+      <c r="C146" t="s">
+        <v>118</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147">
+        <v>139675497</v>
+      </c>
+      <c r="C147" t="s">
+        <v>118</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>154</v>
+      </c>
+      <c r="B148">
+        <v>139675497</v>
+      </c>
+      <c r="C148" t="s">
+        <v>118</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149">
+        <v>139675497</v>
+      </c>
+      <c r="C149" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>156</v>
+      </c>
+      <c r="B150">
+        <v>139675497</v>
+      </c>
+      <c r="C150" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151">
+        <v>139675497</v>
+      </c>
+      <c r="C151" t="s">
+        <v>118</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>139675497</v>
+      </c>
+      <c r="C152" t="s">
+        <v>118</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>139675497</v>
+      </c>
+      <c r="C153" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154">
+        <v>139675497</v>
+      </c>
+      <c r="C154" t="s">
+        <v>118</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155">
+        <v>139675497</v>
+      </c>
+      <c r="C155" t="s">
+        <v>118</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>162</v>
+      </c>
+      <c r="B156">
+        <v>139675497</v>
+      </c>
+      <c r="C156" t="s">
+        <v>118</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157">
+        <v>139675497</v>
+      </c>
+      <c r="C157" t="s">
+        <v>118</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158">
+        <v>139675497</v>
+      </c>
+      <c r="C158" t="s">
+        <v>118</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159">
+        <v>139675497</v>
+      </c>
+      <c r="C159" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>166</v>
+      </c>
+      <c r="B160">
+        <v>139675497</v>
+      </c>
+      <c r="C160" t="s">
+        <v>118</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161">
+        <v>139675497</v>
+      </c>
+      <c r="C161" t="s">
+        <v>118</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162">
+        <v>139675497</v>
+      </c>
+      <c r="C162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163">
+        <v>139675497</v>
+      </c>
+      <c r="C163" t="s">
+        <v>118</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164">
+        <v>139675497</v>
+      </c>
+      <c r="C164" t="s">
+        <v>118</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165">
+        <v>139675497</v>
+      </c>
+      <c r="C165" t="s">
+        <v>118</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166">
+        <v>139675497</v>
+      </c>
+      <c r="C166" t="s">
+        <v>118</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167">
+        <v>139675497</v>
+      </c>
+      <c r="C167" t="s">
+        <v>118</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168">
+        <v>139675497</v>
+      </c>
+      <c r="C168" t="s">
+        <v>118</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169">
+        <v>139675497</v>
+      </c>
+      <c r="C169" t="s">
+        <v>118</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4</v>
+      </c>
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170">
+        <v>139675497</v>
+      </c>
+      <c r="C170" t="s">
+        <v>118</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171">
+        <v>139675497</v>
+      </c>
+      <c r="C171" t="s">
+        <v>118</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172">
+        <v>139675497</v>
+      </c>
+      <c r="C172" t="s">
+        <v>118</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173">
+        <v>139675497</v>
+      </c>
+      <c r="C173" t="s">
+        <v>118</v>
+      </c>
+      <c r="D173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>180</v>
+      </c>
+      <c r="B174">
+        <v>139675497</v>
+      </c>
+      <c r="C174" t="s">
+        <v>118</v>
+      </c>
+      <c r="D174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175">
+        <v>139675497</v>
+      </c>
+      <c r="C175" t="s">
+        <v>118</v>
+      </c>
+      <c r="D175" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>182</v>
+      </c>
+      <c r="B176">
+        <v>139675497</v>
+      </c>
+      <c r="C176" t="s">
+        <v>118</v>
+      </c>
+      <c r="D176" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177">
+        <v>139675497</v>
+      </c>
+      <c r="C177" t="s">
+        <v>118</v>
+      </c>
+      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>184</v>
+      </c>
+      <c r="B178">
+        <v>139675497</v>
+      </c>
+      <c r="C178" t="s">
+        <v>118</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179">
+        <v>139675497</v>
+      </c>
+      <c r="C179" t="s">
+        <v>118</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>186</v>
+      </c>
+      <c r="B180">
+        <v>139675497</v>
+      </c>
+      <c r="C180" t="s">
+        <v>118</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181">
+        <v>139675497</v>
+      </c>
+      <c r="C181" t="s">
+        <v>118</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182">
+        <v>139675497</v>
+      </c>
+      <c r="C182" t="s">
+        <v>118</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183">
+        <v>139675497</v>
+      </c>
+      <c r="C183" t="s">
+        <v>118</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>190</v>
+      </c>
+      <c r="B184">
+        <v>139675497</v>
+      </c>
+      <c r="C184" t="s">
+        <v>118</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185">
+        <v>139675497</v>
+      </c>
+      <c r="C185" t="s">
+        <v>118</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>192</v>
+      </c>
+      <c r="B186">
+        <v>139675497</v>
+      </c>
+      <c r="C186" t="s">
+        <v>118</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187">
+        <v>139675497</v>
+      </c>
+      <c r="C187" t="s">
+        <v>118</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>194</v>
+      </c>
+      <c r="B188">
+        <v>139675497</v>
+      </c>
+      <c r="C188" t="s">
+        <v>118</v>
+      </c>
+      <c r="D188" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189">
+        <v>139675497</v>
+      </c>
+      <c r="C189" t="s">
+        <v>118</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190">
+        <v>139675497</v>
+      </c>
+      <c r="C190" t="s">
+        <v>118</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191">
+        <v>139675497</v>
+      </c>
+      <c r="C191" t="s">
+        <v>118</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192">
+        <v>139675497</v>
+      </c>
+      <c r="C192" t="s">
+        <v>118</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193">
+        <v>139675497</v>
+      </c>
+      <c r="C193" t="s">
+        <v>118</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>200</v>
+      </c>
+      <c r="B194">
+        <v>139675497</v>
+      </c>
+      <c r="C194" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>201</v>
+      </c>
+      <c r="B195">
+        <v>139675497</v>
+      </c>
+      <c r="C195" t="s">
+        <v>118</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196">
+        <v>139675497</v>
+      </c>
+      <c r="C196" t="s">
+        <v>118</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197">
+        <v>139675497</v>
+      </c>
+      <c r="C197" t="s">
+        <v>118</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198">
+        <v>139675497</v>
+      </c>
+      <c r="C198" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199">
+        <v>139675497</v>
+      </c>
+      <c r="C199" t="s">
+        <v>118</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200">
+        <v>139675497</v>
+      </c>
+      <c r="C200" t="s">
+        <v>118</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>207</v>
+      </c>
+      <c r="B201">
+        <v>139675497</v>
+      </c>
+      <c r="C201" t="s">
+        <v>118</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202">
+        <v>139675497</v>
+      </c>
+      <c r="C202" t="s">
+        <v>118</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>209</v>
+      </c>
+      <c r="B203">
+        <v>139675497</v>
+      </c>
+      <c r="C203" t="s">
+        <v>118</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204">
+        <v>139675497</v>
+      </c>
+      <c r="C204" t="s">
+        <v>118</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205">
+        <v>139675497</v>
+      </c>
+      <c r="C205" t="s">
+        <v>118</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>212</v>
+      </c>
+      <c r="B206">
+        <v>139675497</v>
+      </c>
+      <c r="C206" t="s">
+        <v>118</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>213</v>
+      </c>
+      <c r="B207">
+        <v>139675497</v>
+      </c>
+      <c r="C207" t="s">
+        <v>118</v>
+      </c>
+      <c r="D207" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>214</v>
+      </c>
+      <c r="B208">
+        <v>139675497</v>
+      </c>
+      <c r="C208" t="s">
+        <v>118</v>
+      </c>
+      <c r="D208" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209">
+        <v>139675497</v>
+      </c>
+      <c r="C209" t="s">
+        <v>118</v>
+      </c>
+      <c r="D209" t="s">
+        <v>4</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>216</v>
+      </c>
+      <c r="B210">
+        <v>139675497</v>
+      </c>
+      <c r="C210" t="s">
+        <v>118</v>
+      </c>
+      <c r="D210" t="s">
+        <v>4</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211">
+        <v>139675497</v>
+      </c>
+      <c r="C211" t="s">
+        <v>118</v>
+      </c>
+      <c r="D211" t="s">
+        <v>4</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>218</v>
+      </c>
+      <c r="B212">
+        <v>139675497</v>
+      </c>
+      <c r="C212" t="s">
+        <v>118</v>
+      </c>
+      <c r="D212" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213">
+        <v>139675497</v>
+      </c>
+      <c r="C213" t="s">
+        <v>118</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214">
+        <v>139675497</v>
+      </c>
+      <c r="C214" t="s">
+        <v>118</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215">
+        <v>139675497</v>
+      </c>
+      <c r="C215" t="s">
+        <v>118</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216">
+        <v>139675497</v>
+      </c>
+      <c r="C216" t="s">
+        <v>118</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217">
+        <v>139675497</v>
+      </c>
+      <c r="C217" t="s">
+        <v>118</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>224</v>
+      </c>
+      <c r="B218">
+        <v>139675497</v>
+      </c>
+      <c r="C218" t="s">
+        <v>118</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>225</v>
+      </c>
+      <c r="B219">
+        <v>139675497</v>
+      </c>
+      <c r="C219" t="s">
+        <v>118</v>
+      </c>
+      <c r="D219" t="s">
+        <v>4</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220">
+        <v>139675497</v>
+      </c>
+      <c r="C220" t="s">
+        <v>118</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>227</v>
+      </c>
+      <c r="B221">
+        <v>139675497</v>
+      </c>
+      <c r="C221" t="s">
+        <v>118</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222">
+        <v>139675497</v>
+      </c>
+      <c r="C222" t="s">
+        <v>118</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223">
+        <v>139675497</v>
+      </c>
+      <c r="C223" t="s">
+        <v>118</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>230</v>
+      </c>
+      <c r="B224">
+        <v>139675497</v>
+      </c>
+      <c r="C224" t="s">
+        <v>118</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225">
+        <v>139675497</v>
+      </c>
+      <c r="C225" t="s">
+        <v>118</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>232</v>
+      </c>
+      <c r="B226">
+        <v>139675497</v>
+      </c>
+      <c r="C226" t="s">
+        <v>118</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227">
+        <v>139675497</v>
+      </c>
+      <c r="C227" t="s">
+        <v>118</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228">
+        <v>139675497</v>
+      </c>
+      <c r="C228" t="s">
+        <v>118</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229">
+        <v>139675497</v>
+      </c>
+      <c r="C229" t="s">
+        <v>118</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230">
+        <v>139675497</v>
+      </c>
+      <c r="C230" t="s">
+        <v>118</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231">
+        <v>139675497</v>
+      </c>
+      <c r="C231" t="s">
+        <v>118</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232">
+        <v>139675497</v>
+      </c>
+      <c r="C232" t="s">
+        <v>118</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233">
+        <v>139675497</v>
+      </c>
+      <c r="C233" t="s">
+        <v>118</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>240</v>
+      </c>
+      <c r="B234">
+        <v>139675497</v>
+      </c>
+      <c r="C234" t="s">
+        <v>118</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235">
+        <v>139675497</v>
+      </c>
+      <c r="C235" t="s">
+        <v>118</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236">
+        <v>139675497</v>
+      </c>
+      <c r="C236" t="s">
+        <v>118</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237">
+        <v>139675497</v>
+      </c>
+      <c r="C237" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238">
+        <v>139675497</v>
+      </c>
+      <c r="C238" t="s">
+        <v>118</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239">
+        <v>139675497</v>
+      </c>
+      <c r="C239" t="s">
+        <v>118</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240">
+        <v>139675497</v>
+      </c>
+      <c r="C240" t="s">
+        <v>118</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241">
+        <v>139675497</v>
+      </c>
+      <c r="C241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242">
+        <v>139675497</v>
+      </c>
+      <c r="C242" t="s">
+        <v>118</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243">
+        <v>139675497</v>
+      </c>
+      <c r="C243" t="s">
+        <v>118</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>250</v>
+      </c>
+      <c r="B244">
+        <v>139675497</v>
+      </c>
+      <c r="C244" t="s">
+        <v>118</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245">
+        <v>139675497</v>
+      </c>
+      <c r="C245" t="s">
+        <v>118</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>252</v>
+      </c>
+      <c r="B246">
+        <v>139675497</v>
+      </c>
+      <c r="C246" t="s">
+        <v>118</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>253</v>
+      </c>
+      <c r="B247">
+        <v>139675497</v>
+      </c>
+      <c r="C247" t="s">
+        <v>118</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248">
+        <v>139675497</v>
+      </c>
+      <c r="C248" t="s">
+        <v>118</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>255</v>
+      </c>
+      <c r="B249">
+        <v>139675497</v>
+      </c>
+      <c r="C249" t="s">
+        <v>118</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>256</v>
+      </c>
+      <c r="B250">
+        <v>139675497</v>
+      </c>
+      <c r="C250" t="s">
+        <v>118</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>257</v>
+      </c>
+      <c r="B251">
+        <v>139675497</v>
+      </c>
+      <c r="C251" t="s">
+        <v>118</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>258</v>
+      </c>
+      <c r="B252">
+        <v>139675497</v>
+      </c>
+      <c r="C252" t="s">
+        <v>118</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>259</v>
+      </c>
+      <c r="B253">
+        <v>139675497</v>
+      </c>
+      <c r="C253" t="s">
+        <v>118</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>260</v>
+      </c>
+      <c r="B254">
+        <v>139675497</v>
+      </c>
+      <c r="C254" t="s">
+        <v>118</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>261</v>
+      </c>
+      <c r="B255">
+        <v>139675497</v>
+      </c>
+      <c r="C255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>262</v>
+      </c>
+      <c r="B256">
+        <v>139675497</v>
+      </c>
+      <c r="C256" t="s">
+        <v>118</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257">
+        <v>139675497</v>
+      </c>
+      <c r="C257" t="s">
+        <v>118</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>264</v>
+      </c>
+      <c r="B258">
+        <v>139675497</v>
+      </c>
+      <c r="C258" t="s">
+        <v>118</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
+      </c>
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>265</v>
+      </c>
+      <c r="B259">
+        <v>139675497</v>
+      </c>
+      <c r="C259" t="s">
+        <v>118</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>266</v>
+      </c>
+      <c r="B260">
+        <v>139675497</v>
+      </c>
+      <c r="C260" t="s">
+        <v>118</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>267</v>
+      </c>
+      <c r="B261">
+        <v>139675497</v>
+      </c>
+      <c r="C261" t="s">
+        <v>118</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>268</v>
+      </c>
+      <c r="B262">
+        <v>139675497</v>
+      </c>
+      <c r="C262" t="s">
+        <v>118</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>269</v>
+      </c>
+      <c r="B263">
+        <v>139675497</v>
+      </c>
+      <c r="C263" t="s">
+        <v>118</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264">
+        <v>139675497</v>
+      </c>
+      <c r="C264" t="s">
+        <v>118</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>271</v>
+      </c>
+      <c r="B265">
+        <v>139675497</v>
+      </c>
+      <c r="C265" t="s">
+        <v>118</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>272</v>
+      </c>
+      <c r="B266">
+        <v>139675497</v>
+      </c>
+      <c r="C266" t="s">
+        <v>118</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
+      </c>
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>273</v>
+      </c>
+      <c r="B267">
+        <v>139675497</v>
+      </c>
+      <c r="C267" t="s">
+        <v>118</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268">
+        <v>139675497</v>
+      </c>
+      <c r="C268" t="s">
+        <v>118</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>275</v>
+      </c>
+      <c r="B269">
+        <v>139675497</v>
+      </c>
+      <c r="C269" t="s">
+        <v>118</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270">
+        <v>139675497</v>
+      </c>
+      <c r="C270" t="s">
+        <v>118</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>277</v>
+      </c>
+      <c r="B271">
+        <v>139675497</v>
+      </c>
+      <c r="C271" t="s">
+        <v>118</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>278</v>
+      </c>
+      <c r="B272">
+        <v>139675497</v>
+      </c>
+      <c r="C272" t="s">
+        <v>118</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
+      </c>
+      <c r="E272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273">
+        <v>139675497</v>
+      </c>
+      <c r="C273" t="s">
+        <v>118</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>280</v>
+      </c>
+      <c r="B274">
+        <v>139675497</v>
+      </c>
+      <c r="C274" t="s">
+        <v>118</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
+      </c>
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275">
+        <v>139675497</v>
+      </c>
+      <c r="C275" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276">
+        <v>139675497</v>
+      </c>
+      <c r="C276" t="s">
+        <v>118</v>
+      </c>
+      <c r="D276" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277">
+        <v>139675497</v>
+      </c>
+      <c r="C277" t="s">
+        <v>118</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278">
+        <v>139675497</v>
+      </c>
+      <c r="C278" t="s">
+        <v>118</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279">
+        <v>139675497</v>
+      </c>
+      <c r="C279" t="s">
+        <v>118</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280">
+        <v>139675497</v>
+      </c>
+      <c r="C280" t="s">
+        <v>118</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
+      </c>
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281">
+        <v>139675497</v>
+      </c>
+      <c r="C281" t="s">
+        <v>118</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282">
+        <v>139675497</v>
+      </c>
+      <c r="C282" t="s">
+        <v>118</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
+      </c>
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283">
+        <v>139675497</v>
+      </c>
+      <c r="C283" t="s">
+        <v>118</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
+      </c>
+      <c r="E283" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284">
+        <v>139675497</v>
+      </c>
+      <c r="C284" t="s">
+        <v>118</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
+      </c>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>291</v>
+      </c>
+      <c r="B285">
+        <v>139675497</v>
+      </c>
+      <c r="C285" t="s">
+        <v>118</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286">
+        <v>139675497</v>
+      </c>
+      <c r="C286" t="s">
+        <v>118</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
+      </c>
+      <c r="E286" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287">
+        <v>139675497</v>
+      </c>
+      <c r="C287" t="s">
+        <v>118</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
+      </c>
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288">
+        <v>139675497</v>
+      </c>
+      <c r="C288" t="s">
+        <v>118</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>295</v>
+      </c>
+      <c r="B289">
+        <v>139675497</v>
+      </c>
+      <c r="C289" t="s">
+        <v>118</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
+      </c>
+      <c r="E289" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>296</v>
+      </c>
+      <c r="B290">
+        <v>139675497</v>
+      </c>
+      <c r="C290" t="s">
+        <v>118</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>297</v>
+      </c>
+      <c r="B291">
+        <v>139675497</v>
+      </c>
+      <c r="C291" t="s">
+        <v>118</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
+      </c>
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>298</v>
+      </c>
+      <c r="B292">
+        <v>139675497</v>
+      </c>
+      <c r="C292" t="s">
+        <v>118</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>299</v>
+      </c>
+      <c r="B293">
+        <v>139675497</v>
+      </c>
+      <c r="C293" t="s">
+        <v>118</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
+      </c>
+      <c r="E293" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>300</v>
+      </c>
+      <c r="B294">
+        <v>139675497</v>
+      </c>
+      <c r="C294" t="s">
+        <v>118</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
+      </c>
+      <c r="E294" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>301</v>
+      </c>
+      <c r="B295">
+        <v>139675497</v>
+      </c>
+      <c r="C295" t="s">
+        <v>118</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
+      </c>
+      <c r="E295" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>302</v>
+      </c>
+      <c r="B296">
+        <v>139675497</v>
+      </c>
+      <c r="C296" t="s">
+        <v>118</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
+      </c>
+      <c r="E296" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>303</v>
+      </c>
+      <c r="B297">
+        <v>139675497</v>
+      </c>
+      <c r="C297" t="s">
+        <v>118</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
+      </c>
+      <c r="E297" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>304</v>
+      </c>
+      <c r="B298">
+        <v>139675497</v>
+      </c>
+      <c r="C298" t="s">
+        <v>118</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299">
+        <v>139675497</v>
+      </c>
+      <c r="C299" t="s">
+        <v>118</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
+      </c>
+      <c r="E299" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>306</v>
+      </c>
+      <c r="B300">
+        <v>139675497</v>
+      </c>
+      <c r="C300" t="s">
+        <v>118</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301">
+        <v>139675497</v>
+      </c>
+      <c r="C301" t="s">
+        <v>118</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>308</v>
+      </c>
+      <c r="B302">
+        <v>139675497</v>
+      </c>
+      <c r="C302" t="s">
+        <v>118</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>309</v>
+      </c>
+      <c r="B303">
+        <v>139675497</v>
+      </c>
+      <c r="C303" t="s">
+        <v>118</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>310</v>
+      </c>
+      <c r="B304">
+        <v>139675497</v>
+      </c>
+      <c r="C304" t="s">
+        <v>118</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
+      </c>
+      <c r="E304" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>311</v>
+      </c>
+      <c r="B305">
+        <v>139675497</v>
+      </c>
+      <c r="C305" t="s">
+        <v>118</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>312</v>
+      </c>
+      <c r="B306">
+        <v>139675497</v>
+      </c>
+      <c r="C306" t="s">
+        <v>118</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>313</v>
+      </c>
+      <c r="B307">
+        <v>139675497</v>
+      </c>
+      <c r="C307" t="s">
+        <v>118</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
+      </c>
+      <c r="E307" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>314</v>
+      </c>
+      <c r="B308">
+        <v>139675497</v>
+      </c>
+      <c r="C308" t="s">
+        <v>118</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
+      </c>
+      <c r="E308" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>315</v>
+      </c>
+      <c r="B309">
+        <v>139675497</v>
+      </c>
+      <c r="C309" t="s">
+        <v>118</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
+      </c>
+      <c r="E309" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>316</v>
+      </c>
+      <c r="B310">
+        <v>139675497</v>
+      </c>
+      <c r="C310" t="s">
+        <v>118</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
+      </c>
+      <c r="E310" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>317</v>
+      </c>
+      <c r="B311">
+        <v>139675497</v>
+      </c>
+      <c r="C311" t="s">
+        <v>118</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
+      </c>
+      <c r="E311" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>318</v>
+      </c>
+      <c r="B312">
+        <v>139675497</v>
+      </c>
+      <c r="C312" t="s">
+        <v>118</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
+      </c>
+      <c r="E312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>319</v>
+      </c>
+      <c r="B313">
+        <v>139675497</v>
+      </c>
+      <c r="C313" t="s">
+        <v>118</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
+      </c>
+      <c r="E313" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>320</v>
+      </c>
+      <c r="B314">
+        <v>139675497</v>
+      </c>
+      <c r="C314" t="s">
+        <v>118</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
+      </c>
+      <c r="E314" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>321</v>
+      </c>
+      <c r="B315">
+        <v>139675497</v>
+      </c>
+      <c r="C315" t="s">
+        <v>118</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
+      </c>
+      <c r="E315" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>322</v>
+      </c>
+      <c r="B316">
+        <v>139675497</v>
+      </c>
+      <c r="C316" t="s">
+        <v>118</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317">
+        <v>139675497</v>
+      </c>
+      <c r="C317" t="s">
+        <v>118</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>324</v>
+      </c>
+      <c r="B318">
+        <v>139675497</v>
+      </c>
+      <c r="C318" t="s">
+        <v>118</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
+      </c>
+      <c r="E318" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>325</v>
+      </c>
+      <c r="B319">
+        <v>139675497</v>
+      </c>
+      <c r="C319" t="s">
+        <v>118</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>326</v>
+      </c>
+      <c r="B320">
+        <v>139675497</v>
+      </c>
+      <c r="C320" t="s">
+        <v>118</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
+      </c>
+      <c r="E320" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>327</v>
+      </c>
+      <c r="B321">
+        <v>139675497</v>
+      </c>
+      <c r="C321" t="s">
+        <v>118</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
+      </c>
+      <c r="E321" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>328</v>
+      </c>
+      <c r="B322">
+        <v>139675497</v>
+      </c>
+      <c r="C322" t="s">
+        <v>118</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>329</v>
+      </c>
+      <c r="B323">
+        <v>139675497</v>
+      </c>
+      <c r="C323" t="s">
+        <v>118</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
+      </c>
+      <c r="E323" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>330</v>
+      </c>
+      <c r="B324">
+        <v>139675497</v>
+      </c>
+      <c r="C324" t="s">
+        <v>118</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
+      </c>
+      <c r="E324" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>331</v>
+      </c>
+      <c r="B325">
+        <v>139675497</v>
+      </c>
+      <c r="C325" t="s">
+        <v>118</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
+      </c>
+      <c r="E325" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>332</v>
+      </c>
+      <c r="B326">
+        <v>139675497</v>
+      </c>
+      <c r="C326" t="s">
+        <v>118</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
+      </c>
+      <c r="E326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>333</v>
+      </c>
+      <c r="B327">
+        <v>139675497</v>
+      </c>
+      <c r="C327" t="s">
+        <v>118</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>334</v>
+      </c>
+      <c r="B328">
+        <v>139675497</v>
+      </c>
+      <c r="C328" t="s">
+        <v>118</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
+      </c>
+      <c r="E328" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>335</v>
+      </c>
+      <c r="B329">
+        <v>139675497</v>
+      </c>
+      <c r="C329" t="s">
+        <v>118</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
+      </c>
+      <c r="E329" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>336</v>
+      </c>
+      <c r="B330">
+        <v>139675497</v>
+      </c>
+      <c r="C330" t="s">
+        <v>118</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
+      </c>
+      <c r="E330" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>337</v>
+      </c>
+      <c r="B331">
+        <v>139675497</v>
+      </c>
+      <c r="C331" t="s">
+        <v>118</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
+      </c>
+      <c r="E331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>338</v>
+      </c>
+      <c r="B332">
+        <v>139675497</v>
+      </c>
+      <c r="C332" t="s">
+        <v>118</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
+      </c>
+      <c r="E332" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>339</v>
+      </c>
+      <c r="B333">
+        <v>139675497</v>
+      </c>
+      <c r="C333" t="s">
+        <v>118</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>340</v>
+      </c>
+      <c r="B334">
+        <v>139675497</v>
+      </c>
+      <c r="C334" t="s">
+        <v>118</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
+      </c>
+      <c r="E334" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>341</v>
+      </c>
+      <c r="B335">
+        <v>139675497</v>
+      </c>
+      <c r="C335" t="s">
+        <v>118</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
+      </c>
+      <c r="E335" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>342</v>
+      </c>
+      <c r="B336">
+        <v>139675497</v>
+      </c>
+      <c r="C336" t="s">
+        <v>118</v>
+      </c>
+      <c r="D336" t="s">
+        <v>4</v>
+      </c>
+      <c r="E336" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>343</v>
+      </c>
+      <c r="B337">
+        <v>139675497</v>
+      </c>
+      <c r="C337" t="s">
+        <v>118</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338">
+        <v>139675497</v>
+      </c>
+      <c r="C338" t="s">
+        <v>118</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
+      </c>
+      <c r="E338" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>345</v>
+      </c>
+      <c r="B339">
+        <v>139675497</v>
+      </c>
+      <c r="C339" t="s">
+        <v>118</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>346</v>
+      </c>
+      <c r="B340">
+        <v>139675497</v>
+      </c>
+      <c r="C340" t="s">
+        <v>118</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>347</v>
+      </c>
+      <c r="B341">
+        <v>139675497</v>
+      </c>
+      <c r="C341" t="s">
+        <v>118</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>348</v>
+      </c>
+      <c r="B342">
+        <v>139675497</v>
+      </c>
+      <c r="C342" t="s">
+        <v>118</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
+      </c>
+      <c r="E342" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>349</v>
+      </c>
+      <c r="B343">
+        <v>139675497</v>
+      </c>
+      <c r="C343" t="s">
+        <v>118</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
+      </c>
+      <c r="E343" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>350</v>
+      </c>
+      <c r="B344">
+        <v>139675497</v>
+      </c>
+      <c r="C344" t="s">
+        <v>118</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
+      </c>
+      <c r="E344" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>351</v>
+      </c>
+      <c r="B345">
+        <v>139675497</v>
+      </c>
+      <c r="C345" t="s">
+        <v>118</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
+      </c>
+      <c r="E345" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>352</v>
+      </c>
+      <c r="B346">
+        <v>139675497</v>
+      </c>
+      <c r="C346" t="s">
+        <v>118</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
+      </c>
+      <c r="E346" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>353</v>
+      </c>
+      <c r="B347">
+        <v>139675497</v>
+      </c>
+      <c r="C347" t="s">
+        <v>118</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
+      </c>
+      <c r="E347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>354</v>
+      </c>
+      <c r="B348">
+        <v>139675497</v>
+      </c>
+      <c r="C348" t="s">
+        <v>118</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
+      </c>
+      <c r="E348" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>355</v>
+      </c>
+      <c r="B349">
+        <v>139675497</v>
+      </c>
+      <c r="C349" t="s">
+        <v>118</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
+      </c>
+      <c r="E349" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>356</v>
+      </c>
+      <c r="B350">
+        <v>139675497</v>
+      </c>
+      <c r="C350" t="s">
+        <v>118</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
+      </c>
+      <c r="E350" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>357</v>
+      </c>
+      <c r="B351">
+        <v>139675497</v>
+      </c>
+      <c r="C351" t="s">
+        <v>118</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
+      </c>
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>358</v>
+      </c>
+      <c r="B352">
+        <v>139675497</v>
+      </c>
+      <c r="C352" t="s">
+        <v>118</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
+      </c>
+      <c r="E352" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>359</v>
+      </c>
+      <c r="B353">
+        <v>139675497</v>
+      </c>
+      <c r="C353" t="s">
+        <v>118</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
+      </c>
+      <c r="E353" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>360</v>
+      </c>
+      <c r="B354">
+        <v>139675497</v>
+      </c>
+      <c r="C354" t="s">
+        <v>118</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
+      </c>
+      <c r="E354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>361</v>
+      </c>
+      <c r="B355">
+        <v>139675497</v>
+      </c>
+      <c r="C355" t="s">
+        <v>118</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
+      </c>
+      <c r="E355" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>362</v>
+      </c>
+      <c r="B356">
+        <v>139675497</v>
+      </c>
+      <c r="C356" t="s">
+        <v>118</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
+      </c>
+      <c r="E356" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>363</v>
+      </c>
+      <c r="B357">
+        <v>139675497</v>
+      </c>
+      <c r="C357" t="s">
+        <v>118</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
+      </c>
+      <c r="E357" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>364</v>
+      </c>
+      <c r="B358">
+        <v>139675497</v>
+      </c>
+      <c r="C358" t="s">
+        <v>118</v>
+      </c>
+      <c r="D358" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>365</v>
+      </c>
+      <c r="B359">
+        <v>139675497</v>
+      </c>
+      <c r="C359" t="s">
+        <v>118</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
+      </c>
+      <c r="E359" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>366</v>
+      </c>
+      <c r="B360">
+        <v>139675497</v>
+      </c>
+      <c r="C360" t="s">
+        <v>118</v>
+      </c>
+      <c r="D360" t="s">
+        <v>4</v>
+      </c>
+      <c r="E360" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>367</v>
+      </c>
+      <c r="B361">
+        <v>139675497</v>
+      </c>
+      <c r="C361" t="s">
+        <v>118</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>368</v>
+      </c>
+      <c r="B362">
+        <v>139675497</v>
+      </c>
+      <c r="C362" t="s">
+        <v>118</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
+      </c>
+      <c r="E362" t="s">
         <v>6</v>
       </c>
     </row>
